--- a/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_Customer_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10102_Get_Customer_Details.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{183ED54F-9551-4109-B69E-951343D82C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BFCD3-25A8-4EAE-8A8C-6B1EFEBA45AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -43,116 +43,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{B1981259-EE83-4D9E-B847-E4693DC2A35C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{03A308BF-0B22-4014-988C-02F818B34E9F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="V25" authorId="0" shapeId="0" xr:uid="{CEDD3F3D-EE43-495C-9359-6EF5ECA9999A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
   <si>
@@ -461,9 +351,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Domain name</t>
   </si>
   <si>
@@ -621,6 +508,10 @@
   </si>
   <si>
     <t>1.1. Web service subfunction overview</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -631,7 +522,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -778,21 +669,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3305,8 +3181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5876925" y="4927600"/>
-          <a:ext cx="603250" cy="342900"/>
+          <a:off x="5943600" y="5124450"/>
+          <a:ext cx="609600" cy="361950"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3762,8 +3638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="4489450"/>
-          <a:ext cx="676275" cy="352425"/>
+          <a:off x="7686675" y="4667250"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -3987,8 +3863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="4946650"/>
-          <a:ext cx="676275" cy="352425"/>
+          <a:off x="7686675" y="5143500"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4391,8 +4267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4219575" y="4060825"/>
-          <a:ext cx="142875" cy="155575"/>
+          <a:off x="4267200" y="4219575"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5749,42 +5625,42 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -5795,7 +5671,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5804,7 +5680,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5816,7 +5692,7 @@
       <c r="K25" s="157"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -5825,7 +5701,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5834,7 +5710,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5843,7 +5719,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -5851,7 +5727,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
@@ -5860,7 +5736,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
@@ -5869,7 +5745,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -5878,7 +5754,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -5890,7 +5766,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -5905,515 +5781,515 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="30"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="29"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6437,12 +6313,12 @@
       <selection activeCell="J8" sqref="J8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="20"/>
+    <col min="1" max="16384" width="4.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
@@ -6500,7 +6376,7 @@
       <c r="AM1" s="11"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
@@ -6554,7 +6430,7 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
     </row>
-    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="201" t="s">
         <v>33</v>
       </c>
@@ -6600,7 +6476,7 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="15" t="s">
         <v>35</v>
       </c>
@@ -6614,7 +6490,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="15"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
@@ -6626,7 +6502,7 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
@@ -6677,7 +6553,7 @@
       <c r="AH7" s="193"/>
       <c r="AI7" s="192"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
@@ -6724,7 +6600,7 @@
       <c r="AH8" s="179"/>
       <c r="AI8" s="180"/>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="158"/>
       <c r="C9" s="159"/>
@@ -6761,7 +6637,7 @@
       <c r="AH9" s="165"/>
       <c r="AI9" s="166"/>
     </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="158"/>
       <c r="C10" s="159"/>
@@ -6798,7 +6674,7 @@
       <c r="AH10" s="165"/>
       <c r="AI10" s="166"/>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="158"/>
       <c r="C11" s="159"/>
@@ -6835,7 +6711,7 @@
       <c r="AH11" s="165"/>
       <c r="AI11" s="166"/>
     </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="158"/>
       <c r="C12" s="159"/>
@@ -6872,7 +6748,7 @@
       <c r="AH12" s="165"/>
       <c r="AI12" s="166"/>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="158"/>
       <c r="C13" s="159"/>
@@ -6909,7 +6785,7 @@
       <c r="AH13" s="165"/>
       <c r="AI13" s="166"/>
     </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="158"/>
       <c r="C14" s="159"/>
@@ -6946,7 +6822,7 @@
       <c r="AH14" s="165"/>
       <c r="AI14" s="166"/>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="158"/>
       <c r="C15" s="159"/>
@@ -6983,7 +6859,7 @@
       <c r="AH15" s="165"/>
       <c r="AI15" s="166"/>
     </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="158"/>
       <c r="C16" s="159"/>
@@ -7020,7 +6896,7 @@
       <c r="AH16" s="165"/>
       <c r="AI16" s="166"/>
     </row>
-    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="158"/>
       <c r="C17" s="159"/>
@@ -7057,7 +6933,7 @@
       <c r="AH17" s="165"/>
       <c r="AI17" s="166"/>
     </row>
-    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="158"/>
       <c r="C18" s="159"/>
@@ -7094,7 +6970,7 @@
       <c r="AH18" s="165"/>
       <c r="AI18" s="166"/>
     </row>
-    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="158"/>
       <c r="C19" s="159"/>
@@ -7131,7 +7007,7 @@
       <c r="AH19" s="165"/>
       <c r="AI19" s="166"/>
     </row>
-    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="158"/>
       <c r="C20" s="159"/>
@@ -7168,7 +7044,7 @@
       <c r="AH20" s="165"/>
       <c r="AI20" s="166"/>
     </row>
-    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="158"/>
       <c r="C21" s="159"/>
@@ -7205,7 +7081,7 @@
       <c r="AH21" s="165"/>
       <c r="AI21" s="166"/>
     </row>
-    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
       <c r="B22" s="158"/>
       <c r="C22" s="159"/>
@@ -7242,7 +7118,7 @@
       <c r="AH22" s="165"/>
       <c r="AI22" s="166"/>
     </row>
-    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
       <c r="B23" s="158"/>
       <c r="C23" s="159"/>
@@ -7279,7 +7155,7 @@
       <c r="AH23" s="165"/>
       <c r="AI23" s="166"/>
     </row>
-    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="158"/>
       <c r="C24" s="159"/>
@@ -7316,7 +7192,7 @@
       <c r="AH24" s="165"/>
       <c r="AI24" s="166"/>
     </row>
-    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
       <c r="B25" s="158"/>
       <c r="C25" s="159"/>
@@ -7353,7 +7229,7 @@
       <c r="AH25" s="165"/>
       <c r="AI25" s="166"/>
     </row>
-    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
       <c r="B26" s="158"/>
       <c r="C26" s="159"/>
@@ -7390,7 +7266,7 @@
       <c r="AH26" s="165"/>
       <c r="AI26" s="166"/>
     </row>
-    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
       <c r="B27" s="158"/>
       <c r="C27" s="159"/>
@@ -7427,7 +7303,7 @@
       <c r="AH27" s="165"/>
       <c r="AI27" s="166"/>
     </row>
-    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
       <c r="B28" s="158"/>
       <c r="C28" s="159"/>
@@ -7464,7 +7340,7 @@
       <c r="AH28" s="165"/>
       <c r="AI28" s="166"/>
     </row>
-    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
       <c r="B29" s="158"/>
       <c r="C29" s="159"/>
@@ -7501,7 +7377,7 @@
       <c r="AH29" s="165"/>
       <c r="AI29" s="166"/>
     </row>
-    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
       <c r="B30" s="158"/>
       <c r="C30" s="159"/>
@@ -7538,7 +7414,7 @@
       <c r="AH30" s="165"/>
       <c r="AI30" s="166"/>
     </row>
-    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
       <c r="B31" s="158"/>
       <c r="C31" s="159"/>
@@ -7575,7 +7451,7 @@
       <c r="AH31" s="165"/>
       <c r="AI31" s="166"/>
     </row>
-    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
       <c r="B32" s="158"/>
       <c r="C32" s="159"/>
@@ -7612,7 +7488,7 @@
       <c r="AH32" s="165"/>
       <c r="AI32" s="166"/>
     </row>
-    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
       <c r="B33" s="158"/>
       <c r="C33" s="159"/>
@@ -7649,7 +7525,7 @@
       <c r="AH33" s="165"/>
       <c r="AI33" s="166"/>
     </row>
-    <row r="34" spans="1:35" ht="14">
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
@@ -7842,152 +7718,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="68" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="47" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="68" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="47"/>
-    <col min="257" max="290" width="4.77734375" style="47" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="47"/>
-    <col min="513" max="546" width="4.77734375" style="47" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="47"/>
-    <col min="769" max="802" width="4.77734375" style="47" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="47"/>
-    <col min="1025" max="1058" width="4.77734375" style="47" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="47"/>
-    <col min="1281" max="1314" width="4.77734375" style="47" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="47"/>
-    <col min="1537" max="1570" width="4.77734375" style="47" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="47"/>
-    <col min="1793" max="1826" width="4.77734375" style="47" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="47"/>
-    <col min="2049" max="2082" width="4.77734375" style="47" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="47"/>
-    <col min="2305" max="2338" width="4.77734375" style="47" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="47"/>
-    <col min="2561" max="2594" width="4.77734375" style="47" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="47"/>
-    <col min="2817" max="2850" width="4.77734375" style="47" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="47"/>
-    <col min="3073" max="3106" width="4.77734375" style="47" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="47"/>
-    <col min="3329" max="3362" width="4.77734375" style="47" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="47"/>
-    <col min="3585" max="3618" width="4.77734375" style="47" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="47"/>
-    <col min="3841" max="3874" width="4.77734375" style="47" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="47"/>
-    <col min="4097" max="4130" width="4.77734375" style="47" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="47"/>
-    <col min="4353" max="4386" width="4.77734375" style="47" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="47"/>
-    <col min="4609" max="4642" width="4.77734375" style="47" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="47"/>
-    <col min="4865" max="4898" width="4.77734375" style="47" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="47"/>
-    <col min="5121" max="5154" width="4.77734375" style="47" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="47"/>
-    <col min="5377" max="5410" width="4.77734375" style="47" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="47"/>
-    <col min="5633" max="5666" width="4.77734375" style="47" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="47"/>
-    <col min="5889" max="5922" width="4.77734375" style="47" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="47"/>
-    <col min="6145" max="6178" width="4.77734375" style="47" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="47"/>
-    <col min="6401" max="6434" width="4.77734375" style="47" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="47"/>
-    <col min="6657" max="6690" width="4.77734375" style="47" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="47"/>
-    <col min="6913" max="6946" width="4.77734375" style="47" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="47"/>
-    <col min="7169" max="7202" width="4.77734375" style="47" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="47"/>
-    <col min="7425" max="7458" width="4.77734375" style="47" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="47"/>
-    <col min="7681" max="7714" width="4.77734375" style="47" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="47"/>
-    <col min="7937" max="7970" width="4.77734375" style="47" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="47"/>
-    <col min="8193" max="8226" width="4.77734375" style="47" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="47"/>
-    <col min="8449" max="8482" width="4.77734375" style="47" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="47"/>
-    <col min="8705" max="8738" width="4.77734375" style="47" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="47"/>
-    <col min="8961" max="8994" width="4.77734375" style="47" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="47"/>
-    <col min="9217" max="9250" width="4.77734375" style="47" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="47"/>
-    <col min="9473" max="9506" width="4.77734375" style="47" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="47"/>
-    <col min="9729" max="9762" width="4.77734375" style="47" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="47"/>
-    <col min="9985" max="10018" width="4.77734375" style="47" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="47"/>
-    <col min="10241" max="10274" width="4.77734375" style="47" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="47"/>
-    <col min="10497" max="10530" width="4.77734375" style="47" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="47"/>
-    <col min="10753" max="10786" width="4.77734375" style="47" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="47"/>
-    <col min="11009" max="11042" width="4.77734375" style="47" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="47"/>
-    <col min="11265" max="11298" width="4.77734375" style="47" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="47"/>
-    <col min="11521" max="11554" width="4.77734375" style="47" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="47"/>
-    <col min="11777" max="11810" width="4.77734375" style="47" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="47"/>
-    <col min="12033" max="12066" width="4.77734375" style="47" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="47"/>
-    <col min="12289" max="12322" width="4.77734375" style="47" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="47"/>
-    <col min="12545" max="12578" width="4.77734375" style="47" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="47"/>
-    <col min="12801" max="12834" width="4.77734375" style="47" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="47"/>
-    <col min="13057" max="13090" width="4.77734375" style="47" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="47"/>
-    <col min="13313" max="13346" width="4.77734375" style="47" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="47"/>
-    <col min="13569" max="13602" width="4.77734375" style="47" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="47"/>
-    <col min="13825" max="13858" width="4.77734375" style="47" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="47"/>
-    <col min="14081" max="14114" width="4.77734375" style="47" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="47"/>
-    <col min="14337" max="14370" width="4.77734375" style="47" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="47"/>
-    <col min="14593" max="14626" width="4.77734375" style="47" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="47"/>
-    <col min="14849" max="14882" width="4.77734375" style="47" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="47"/>
-    <col min="15105" max="15138" width="4.77734375" style="47" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="47"/>
-    <col min="15361" max="15394" width="4.77734375" style="47" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="47"/>
-    <col min="15617" max="15650" width="4.77734375" style="47" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="47"/>
-    <col min="15873" max="15906" width="4.77734375" style="47" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="47"/>
-    <col min="16129" max="16162" width="4.77734375" style="47" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="47"/>
+    <col min="1" max="16" width="4.83203125" style="47" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="68" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="47" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="68" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="47"/>
+    <col min="257" max="290" width="4.83203125" style="47" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="47"/>
+    <col min="513" max="546" width="4.83203125" style="47" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="47"/>
+    <col min="769" max="802" width="4.83203125" style="47" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="47"/>
+    <col min="1025" max="1058" width="4.83203125" style="47" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="47"/>
+    <col min="1281" max="1314" width="4.83203125" style="47" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="47"/>
+    <col min="1537" max="1570" width="4.83203125" style="47" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="47"/>
+    <col min="1793" max="1826" width="4.83203125" style="47" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="47"/>
+    <col min="2049" max="2082" width="4.83203125" style="47" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="47"/>
+    <col min="2305" max="2338" width="4.83203125" style="47" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="47"/>
+    <col min="2561" max="2594" width="4.83203125" style="47" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="47"/>
+    <col min="2817" max="2850" width="4.83203125" style="47" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="47"/>
+    <col min="3073" max="3106" width="4.83203125" style="47" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="47"/>
+    <col min="3329" max="3362" width="4.83203125" style="47" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="47"/>
+    <col min="3585" max="3618" width="4.83203125" style="47" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="47"/>
+    <col min="3841" max="3874" width="4.83203125" style="47" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="47"/>
+    <col min="4097" max="4130" width="4.83203125" style="47" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="47"/>
+    <col min="4353" max="4386" width="4.83203125" style="47" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="47"/>
+    <col min="4609" max="4642" width="4.83203125" style="47" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="47"/>
+    <col min="4865" max="4898" width="4.83203125" style="47" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="47"/>
+    <col min="5121" max="5154" width="4.83203125" style="47" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="47"/>
+    <col min="5377" max="5410" width="4.83203125" style="47" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="47"/>
+    <col min="5633" max="5666" width="4.83203125" style="47" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="47"/>
+    <col min="5889" max="5922" width="4.83203125" style="47" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="47"/>
+    <col min="6145" max="6178" width="4.83203125" style="47" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="47"/>
+    <col min="6401" max="6434" width="4.83203125" style="47" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="47"/>
+    <col min="6657" max="6690" width="4.83203125" style="47" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="47"/>
+    <col min="6913" max="6946" width="4.83203125" style="47" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="47"/>
+    <col min="7169" max="7202" width="4.83203125" style="47" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="47"/>
+    <col min="7425" max="7458" width="4.83203125" style="47" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="47"/>
+    <col min="7681" max="7714" width="4.83203125" style="47" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="47"/>
+    <col min="7937" max="7970" width="4.83203125" style="47" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="47"/>
+    <col min="8193" max="8226" width="4.83203125" style="47" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="47"/>
+    <col min="8449" max="8482" width="4.83203125" style="47" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="47"/>
+    <col min="8705" max="8738" width="4.83203125" style="47" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="47"/>
+    <col min="8961" max="8994" width="4.83203125" style="47" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="47"/>
+    <col min="9217" max="9250" width="4.83203125" style="47" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="47"/>
+    <col min="9473" max="9506" width="4.83203125" style="47" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="47"/>
+    <col min="9729" max="9762" width="4.83203125" style="47" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="47"/>
+    <col min="9985" max="10018" width="4.83203125" style="47" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="47"/>
+    <col min="10241" max="10274" width="4.83203125" style="47" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="47"/>
+    <col min="10497" max="10530" width="4.83203125" style="47" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="47"/>
+    <col min="10753" max="10786" width="4.83203125" style="47" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="47"/>
+    <col min="11009" max="11042" width="4.83203125" style="47" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="47"/>
+    <col min="11265" max="11298" width="4.83203125" style="47" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="47"/>
+    <col min="11521" max="11554" width="4.83203125" style="47" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="47"/>
+    <col min="11777" max="11810" width="4.83203125" style="47" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="47"/>
+    <col min="12033" max="12066" width="4.83203125" style="47" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="47"/>
+    <col min="12289" max="12322" width="4.83203125" style="47" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="47"/>
+    <col min="12545" max="12578" width="4.83203125" style="47" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="47"/>
+    <col min="12801" max="12834" width="4.83203125" style="47" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="47"/>
+    <col min="13057" max="13090" width="4.83203125" style="47" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="47"/>
+    <col min="13313" max="13346" width="4.83203125" style="47" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="47"/>
+    <col min="13569" max="13602" width="4.83203125" style="47" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="47"/>
+    <col min="13825" max="13858" width="4.83203125" style="47" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="47"/>
+    <col min="14081" max="14114" width="4.83203125" style="47" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="47"/>
+    <col min="14337" max="14370" width="4.83203125" style="47" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="47"/>
+    <col min="14593" max="14626" width="4.83203125" style="47" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="47"/>
+    <col min="14849" max="14882" width="4.83203125" style="47" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="47"/>
+    <col min="15105" max="15138" width="4.83203125" style="47" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="47"/>
+    <col min="15361" max="15394" width="4.83203125" style="47" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="47"/>
+    <col min="15617" max="15650" width="4.83203125" style="47" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="47"/>
+    <col min="15873" max="15906" width="4.83203125" style="47" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="47"/>
+    <col min="16129" max="16162" width="4.83203125" style="47" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
@@ -8042,7 +7918,7 @@
       <c r="AH1" s="226"/>
       <c r="AI1" s="227"/>
     </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="240" t="s">
         <v>3</v>
       </c>
@@ -8092,7 +7968,7 @@
       <c r="AH2" s="226"/>
       <c r="AI2" s="227"/>
     </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
@@ -8140,7 +8016,7 @@
       <c r="AH3" s="226"/>
       <c r="AI3" s="227"/>
     </row>
-    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8177,7 +8053,7 @@
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
     </row>
-    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -8216,7 +8092,7 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="36"/>
     </row>
-    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8253,10 +8129,10 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8292,11 +8168,11 @@
       <c r="AH7" s="45"/>
       <c r="AI7" s="46"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -8331,7 +8207,7 @@
       <c r="AH8" s="49"/>
       <c r="AI8" s="46"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
@@ -8370,7 +8246,7 @@
       <c r="AH9" s="50"/>
       <c r="AI9" s="40"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -8407,7 +8283,7 @@
       <c r="AH10" s="45"/>
       <c r="AI10" s="46"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="51" t="s">
         <v>48</v>
@@ -8446,7 +8322,7 @@
       <c r="AH11" s="45"/>
       <c r="AI11" s="46"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="51" t="s">
@@ -8485,7 +8361,7 @@
       <c r="AH12" s="45"/>
       <c r="AI12" s="46"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40" t="s">
@@ -8519,7 +8395,7 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="46"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="46"/>
       <c r="C14" s="51" t="s">
@@ -8558,7 +8434,7 @@
       <c r="AH14" s="45"/>
       <c r="AI14" s="46"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="51"/>
       <c r="C15" s="40" t="s">
@@ -8597,7 +8473,7 @@
       <c r="AH15" s="45"/>
       <c r="AI15" s="46"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
@@ -8632,7 +8508,7 @@
       <c r="AH16" s="45"/>
       <c r="AI16" s="46"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="36"/>
       <c r="C17" s="51"/>
@@ -8669,7 +8545,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="46"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="36"/>
       <c r="C18" s="40"/>
@@ -8706,7 +8582,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="46"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="36"/>
       <c r="C19" s="40"/>
@@ -8743,7 +8619,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="36"/>
       <c r="C20" s="40"/>
@@ -8780,7 +8656,7 @@
       <c r="AH20" s="45"/>
       <c r="AI20" s="46"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="36"/>
       <c r="C21" s="40"/>
@@ -8817,7 +8693,7 @@
       <c r="AH21" s="45"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="36"/>
       <c r="C22" s="40"/>
@@ -8854,7 +8730,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="46"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="52"/>
       <c r="C23" s="42"/>
@@ -8891,7 +8767,7 @@
       <c r="AH23" s="45"/>
       <c r="AI23" s="46"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="36"/>
       <c r="C24" s="40"/>
@@ -8928,7 +8804,7 @@
       <c r="AH24" s="45"/>
       <c r="AI24" s="46"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="36"/>
       <c r="C25" s="40"/>
@@ -8965,7 +8841,7 @@
       <c r="AH25" s="45"/>
       <c r="AI25" s="46"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="36"/>
       <c r="C26" s="40"/>
@@ -9002,7 +8878,7 @@
       <c r="AH26" s="45"/>
       <c r="AI26" s="46"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="36"/>
       <c r="C27" s="40"/>
@@ -9039,7 +8915,7 @@
       <c r="AH27" s="45"/>
       <c r="AI27" s="46"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="36"/>
       <c r="C28" s="40"/>
@@ -9076,7 +8952,7 @@
       <c r="AH28" s="45"/>
       <c r="AI28" s="46"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="36"/>
       <c r="C29" s="40"/>
@@ -9113,7 +8989,7 @@
       <c r="AH29" s="45"/>
       <c r="AI29" s="46"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -9150,7 +9026,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="57"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -9187,7 +9063,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="57"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="60"/>
       <c r="C32" s="40"/>
@@ -9224,7 +9100,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="57"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="60"/>
       <c r="C33" s="40"/>
@@ -9261,7 +9137,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="57"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="60"/>
       <c r="C34" s="40"/>
@@ -9298,7 +9174,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="57"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="60"/>
       <c r="C35" s="40"/>
@@ -9335,7 +9211,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="57"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -9372,7 +9248,7 @@
       <c r="AH36" s="65"/>
       <c r="AI36" s="53"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="66"/>
@@ -9404,7 +9280,7 @@
       <c r="AH37" s="73"/>
       <c r="AI37" s="69"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="69"/>
       <c r="T38" s="69"/>
       <c r="U38" s="70"/>
@@ -9423,7 +9299,7 @@
       <c r="AH38" s="76"/>
       <c r="AI38" s="69"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="77"/>
       <c r="S39" s="69"/>
       <c r="T39" s="70"/>
@@ -9443,7 +9319,7 @@
       <c r="AH39" s="76"/>
       <c r="AI39" s="69"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="69"/>
       <c r="T40" s="69"/>
       <c r="U40" s="69"/>
@@ -9462,7 +9338,7 @@
       <c r="AH40" s="76"/>
       <c r="AI40" s="69"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="66"/>
@@ -9476,37 +9352,37 @@
       <c r="AH41" s="76"/>
       <c r="AI41" s="69"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="69"/>
       <c r="AF42" s="74"/>
       <c r="AG42" s="75"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="69"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="69"/>
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="69"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66"/>
       <c r="AF44" s="78"/>
       <c r="AG44" s="78"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66"/>
       <c r="AG45" s="78"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="78"/>
       <c r="AG46" s="78"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="78"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="66"/>
       <c r="T48" s="66"/>
       <c r="V48" s="66"/>
@@ -9519,7 +9395,7 @@
       <c r="AC48" s="66"/>
       <c r="AD48" s="66"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="66"/>
       <c r="S49" s="66"/>
       <c r="T49" s="66"/>
@@ -9534,10 +9410,10 @@
       <c r="AD49" s="66"/>
       <c r="AG49" s="78"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="66"/>
     </row>
-    <row r="51" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -9570,7 +9446,7 @@
       <c r="AD51" s="47"/>
       <c r="AH51" s="77"/>
     </row>
-    <row r="52" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -9627,29 +9503,28 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:AH12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.77734375" style="51"/>
-    <col min="33" max="33" width="4.77734375" style="51" customWidth="1"/>
-    <col min="34" max="16384" width="4.77734375" style="51"/>
+    <col min="1" max="32" width="4.83203125" style="51"/>
+    <col min="33" max="33" width="4.83203125" style="51" customWidth="1"/>
+    <col min="34" max="16384" width="4.83203125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
@@ -9704,7 +9579,7 @@
       <c r="AH1" s="263"/>
       <c r="AI1" s="264"/>
     </row>
-    <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="266" t="s">
         <v>9</v>
       </c>
@@ -9754,7 +9629,7 @@
       <c r="AH2" s="263"/>
       <c r="AI2" s="264"/>
     </row>
-    <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="266" t="s">
         <v>11</v>
       </c>
@@ -9802,7 +9677,7 @@
       <c r="AH3" s="263"/>
       <c r="AI3" s="264"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -9839,10 +9714,10 @@
       <c r="AH4" s="80"/>
       <c r="AI4" s="80"/>
     </row>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -9878,11 +9753,11 @@
       <c r="AH5" s="80"/>
       <c r="AI5" s="80"/>
     </row>
-    <row r="6" spans="1:38" ht="12" customHeight="1">
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
@@ -9916,7 +9791,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -9952,12 +9827,12 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="80"/>
     </row>
-    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="255" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="256"/>
       <c r="F8" s="256"/>
@@ -9992,12 +9867,12 @@
       <c r="AG8" s="265"/>
       <c r="AH8" s="265"/>
     </row>
-    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="255" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="256"/>
       <c r="F9" s="256"/>
@@ -10032,12 +9907,12 @@
       <c r="AG9" s="261"/>
       <c r="AH9" s="261"/>
     </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1">
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="252" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="253"/>
       <c r="F10" s="253"/>
@@ -10072,7 +9947,7 @@
       <c r="AG10" s="84"/>
       <c r="AH10" s="85"/>
     </row>
-    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -10112,7 +9987,7 @@
       <c r="AG11" s="265"/>
       <c r="AH11" s="265"/>
     </row>
-    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -10152,7 +10027,7 @@
       <c r="AG12" s="261"/>
       <c r="AH12" s="261"/>
     </row>
-    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -10192,7 +10067,7 @@
       <c r="AG13" s="261"/>
       <c r="AH13" s="261"/>
     </row>
-    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -10232,7 +10107,7 @@
       <c r="AG14" s="261"/>
       <c r="AH14" s="261"/>
     </row>
-    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -10272,7 +10147,7 @@
       <c r="AG15" s="87"/>
       <c r="AH15" s="88"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1">
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -10312,7 +10187,7 @@
       <c r="AK16" s="91"/>
       <c r="AL16" s="91"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1">
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90"/>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -10349,7 +10224,7 @@
       <c r="AH17" s="90"/>
       <c r="AI17" s="80"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1">
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="90"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -10386,7 +10261,7 @@
       <c r="AH18" s="90"/>
       <c r="AI18" s="80"/>
     </row>
-    <row r="19" spans="1:35" s="95" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:35" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
@@ -10419,7 +10294,7 @@
       <c r="AD19" s="259"/>
       <c r="AE19" s="94"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1">
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="80"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -10456,7 +10331,7 @@
       <c r="AH20" s="80"/>
       <c r="AI20" s="80"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1">
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="80"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -10493,7 +10368,7 @@
       <c r="AH21" s="80"/>
       <c r="AI21" s="80"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1">
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -10530,7 +10405,7 @@
       <c r="AH22" s="80"/>
       <c r="AI22" s="80"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1">
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="80"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -10567,7 +10442,7 @@
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1">
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -10604,7 +10479,7 @@
       <c r="AH24" s="80"/>
       <c r="AI24" s="80"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1">
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="80"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -10641,7 +10516,7 @@
       <c r="AH25" s="80"/>
       <c r="AI25" s="80"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1">
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -10678,7 +10553,7 @@
       <c r="AH26" s="80"/>
       <c r="AI26" s="80"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1">
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="80"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -10715,7 +10590,7 @@
       <c r="AH27" s="80"/>
       <c r="AI27" s="80"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1">
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -10752,7 +10627,7 @@
       <c r="AH28" s="80"/>
       <c r="AI28" s="80"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1">
+    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -10789,7 +10664,7 @@
       <c r="AH29" s="80"/>
       <c r="AI29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1">
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="80"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -10826,7 +10701,7 @@
       <c r="AH30" s="80"/>
       <c r="AI30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1">
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -10863,9 +10738,9 @@
       <c r="AH31" s="80"/>
       <c r="AI31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="A1:D1"/>
@@ -10909,27 +10784,26 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="96"/>
+    <col min="1" max="16384" width="4.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="266" t="s">
         <v>12</v>
       </c>
@@ -10984,7 +10858,7 @@
       <c r="AH1" s="263"/>
       <c r="AI1" s="264"/>
     </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="266" t="s">
         <v>15</v>
       </c>
@@ -11034,7 +10908,7 @@
       <c r="AH2" s="263"/>
       <c r="AI2" s="264"/>
     </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="266" t="s">
         <v>17</v>
       </c>
@@ -11082,18 +10956,17 @@
       <c r="AH3" s="263"/>
       <c r="AI3" s="264"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J13" s="96" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="22:22"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
@@ -11122,7 +10995,6 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11137,12 +11009,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="96"/>
+    <col min="1" max="16384" width="4.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="266" t="s">
         <v>18</v>
       </c>
@@ -11200,7 +11072,7 @@
       <c r="AK1" s="97"/>
       <c r="AL1" s="98"/>
     </row>
-    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="266" t="s">
         <v>21</v>
       </c>
@@ -11253,7 +11125,7 @@
       <c r="AK2" s="97"/>
       <c r="AL2" s="97"/>
     </row>
-    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
+    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="266" t="s">
         <v>23</v>
       </c>
@@ -11304,8 +11176,8 @@
       <c r="AK3" s="97"/>
       <c r="AL3" s="97"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="80" t="s">
         <v>66</v>
       </c>
@@ -11342,7 +11214,7 @@
       <c r="AG5" s="80"/>
       <c r="AH5" s="80"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="80"/>
       <c r="C6" s="80" t="s">
         <v>49</v>
@@ -11379,7 +11251,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="99"/>
@@ -11414,7 +11286,7 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="80"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
       <c r="D8" s="323" t="s">
@@ -11461,7 +11333,7 @@
       <c r="AG8" s="304"/>
       <c r="AH8" s="304"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="324"/>
@@ -11506,7 +11378,7 @@
       <c r="AG9" s="304"/>
       <c r="AH9" s="304"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="101">
@@ -11559,7 +11431,7 @@
       <c r="AG10" s="298"/>
       <c r="AH10" s="299"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="101">
@@ -11612,7 +11484,7 @@
       <c r="AG11" s="298"/>
       <c r="AH11" s="299"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="101">
@@ -11665,7 +11537,7 @@
       <c r="AG12" s="298"/>
       <c r="AH12" s="299"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="105"/>
@@ -11700,7 +11572,7 @@
       <c r="AG13" s="109"/>
       <c r="AH13" s="109"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="99"/>
@@ -11735,7 +11607,7 @@
       <c r="AG14" s="80"/>
       <c r="AH14" s="80"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="80"/>
       <c r="C15" s="96" t="s">
         <v>50</v>
@@ -11772,7 +11644,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="90"/>
     </row>
-    <row r="16" spans="1:38" s="110" customFormat="1">
+    <row r="16" spans="1:38" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="80"/>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -11807,7 +11679,7 @@
       <c r="AG16" s="90"/>
       <c r="AH16" s="90"/>
     </row>
-    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1">
+    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="80"/>
       <c r="C17" s="90"/>
       <c r="D17" s="111" t="s">
@@ -11848,7 +11720,7 @@
       <c r="AG17" s="364"/>
       <c r="AH17" s="365"/>
     </row>
-    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1">
+    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="80"/>
       <c r="C18" s="90"/>
       <c r="D18" s="101">
@@ -11889,7 +11761,7 @@
       <c r="AG18" s="298"/>
       <c r="AH18" s="299"/>
     </row>
-    <row r="19" spans="1:35" ht="23.25" customHeight="1">
+    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="90"/>
       <c r="D19" s="101">
@@ -11930,7 +11802,7 @@
       <c r="AG19" s="298"/>
       <c r="AH19" s="299"/>
     </row>
-    <row r="20" spans="1:35" ht="23.25" customHeight="1">
+    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="90"/>
       <c r="D20" s="101">
@@ -11971,7 +11843,7 @@
       <c r="AG20" s="298"/>
       <c r="AH20" s="299"/>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="112"/>
       <c r="C21" s="90"/>
       <c r="D21" s="113"/>
@@ -12006,7 +11878,7 @@
       <c r="AG21" s="90"/>
       <c r="AH21" s="90"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B22" s="112"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
@@ -12041,7 +11913,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="90"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="112"/>
       <c r="C23" s="90" t="s">
         <v>51</v>
@@ -12078,7 +11950,7 @@
       <c r="AG23" s="118"/>
       <c r="AH23" s="118"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
       <c r="D24" s="117" t="s">
@@ -12115,7 +11987,7 @@
       <c r="AG24" s="118"/>
       <c r="AH24" s="118"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B25" s="112"/>
       <c r="C25" s="90"/>
       <c r="D25" s="117"/>
@@ -12150,7 +12022,7 @@
       <c r="AG25" s="118"/>
       <c r="AH25" s="118"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B26" s="112"/>
       <c r="C26" s="90"/>
       <c r="E26" s="119" t="s">
@@ -12177,10 +12049,10 @@
       <c r="T26" s="121"/>
       <c r="U26" s="122"/>
       <c r="V26" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="W26" s="120" t="s">
         <v>97</v>
-      </c>
-      <c r="W26" s="120" t="s">
-        <v>98</v>
       </c>
       <c r="X26" s="121"/>
       <c r="Y26" s="121"/>
@@ -12192,7 +12064,7 @@
       <c r="AG26" s="118"/>
       <c r="AH26" s="125"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="112"/>
       <c r="C27" s="90"/>
@@ -12201,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="128"/>
       <c r="H27" s="128"/>
@@ -12209,7 +12081,7 @@
       <c r="J27" s="128"/>
       <c r="K27" s="129"/>
       <c r="L27" s="127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M27" s="128"/>
       <c r="N27" s="128"/>
@@ -12221,10 +12093,10 @@
       <c r="T27" s="128"/>
       <c r="U27" s="129"/>
       <c r="V27" s="127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W27" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X27" s="131"/>
       <c r="Y27" s="131"/>
@@ -12236,11 +12108,11 @@
       <c r="AG27" s="118"/>
       <c r="AH27" s="125"/>
     </row>
-    <row r="28" spans="1:35" s="134" customFormat="1">
+    <row r="28" spans="1:35" s="134" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -12277,7 +12149,7 @@
       <c r="AH29" s="40"/>
       <c r="AI29" s="40"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40" t="s">
@@ -12316,12 +12188,12 @@
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -12355,7 +12227,7 @@
       <c r="AH31" s="40"/>
       <c r="AI31" s="40"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -12392,7 +12264,7 @@
       <c r="AH32" s="40"/>
       <c r="AI32" s="40"/>
     </row>
-    <row r="33" spans="1:35" ht="41.25" customHeight="1">
+    <row r="33" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -12401,7 +12273,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="331" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" s="332"/>
       <c r="H33" s="332"/>
@@ -12409,7 +12281,7 @@
       <c r="J33" s="332"/>
       <c r="K33" s="333"/>
       <c r="L33" s="331" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M33" s="332"/>
       <c r="N33" s="332"/>
@@ -12421,18 +12293,18 @@
       <c r="T33" s="332"/>
       <c r="U33" s="333"/>
       <c r="V33" s="283" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W33" s="284"/>
       <c r="X33" s="285"/>
       <c r="Y33" s="283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z33" s="284"/>
       <c r="AA33" s="284"/>
       <c r="AB33" s="285"/>
       <c r="AC33" s="334" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD33" s="335"/>
       <c r="AE33" s="335"/>
@@ -12441,7 +12313,7 @@
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
     </row>
-    <row r="34" spans="1:35" ht="36.75" customHeight="1">
+    <row r="34" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -12450,7 +12322,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="279" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="280"/>
       <c r="H34" s="280"/>
@@ -12458,7 +12330,7 @@
       <c r="J34" s="280"/>
       <c r="K34" s="281"/>
       <c r="L34" s="279" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M34" s="280"/>
       <c r="N34" s="280"/>
@@ -12470,12 +12342,12 @@
       <c r="T34" s="280"/>
       <c r="U34" s="281"/>
       <c r="V34" s="357" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W34" s="358"/>
       <c r="X34" s="359"/>
       <c r="Y34" s="337" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z34" s="338"/>
       <c r="AA34" s="338"/>
@@ -12490,7 +12362,7 @@
       <c r="AH34" s="40"/>
       <c r="AI34" s="40"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -12527,12 +12399,12 @@
       <c r="AH35" s="40"/>
       <c r="AI35" s="40"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="E36" s="96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA36" s="40"/>
       <c r="AB36" s="40"/>
@@ -12544,7 +12416,7 @@
       <c r="AH36" s="40"/>
       <c r="AI36" s="40"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -12556,12 +12428,12 @@
       <c r="H37" s="287"/>
       <c r="I37" s="287"/>
       <c r="J37" s="282" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K37" s="282"/>
       <c r="L37" s="282"/>
       <c r="M37" s="283" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N37" s="284"/>
       <c r="O37" s="284"/>
@@ -12570,7 +12442,7 @@
       <c r="R37" s="284"/>
       <c r="S37" s="285"/>
       <c r="T37" s="283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U37" s="284"/>
       <c r="V37" s="284"/>
@@ -12583,24 +12455,24 @@
       <c r="AC37" s="284"/>
       <c r="AD37" s="285"/>
     </row>
-    <row r="38" spans="1:35" ht="11.25" customHeight="1">
+    <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
       <c r="E38" s="279" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="280"/>
       <c r="G38" s="280"/>
       <c r="H38" s="280"/>
       <c r="I38" s="280"/>
       <c r="J38" s="278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K38" s="278"/>
       <c r="L38" s="278"/>
       <c r="M38" s="279" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N38" s="280"/>
       <c r="O38" s="280"/>
@@ -12609,7 +12481,7 @@
       <c r="R38" s="280"/>
       <c r="S38" s="281"/>
       <c r="T38" s="279" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U38" s="280"/>
       <c r="V38" s="280"/>
@@ -12622,7 +12494,7 @@
       <c r="AC38" s="280"/>
       <c r="AD38" s="281"/>
     </row>
-    <row r="39" spans="1:35" ht="11.25" customHeight="1">
+    <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -12653,7 +12525,7 @@
       <c r="AC39" s="137"/>
       <c r="AD39" s="137"/>
     </row>
-    <row r="40" spans="1:35" ht="11.25" customHeight="1">
+    <row r="40" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -12684,12 +12556,12 @@
       <c r="AC40" s="137"/>
       <c r="AD40" s="137"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
@@ -12723,7 +12595,7 @@
       <c r="AH41" s="40"/>
       <c r="AI41" s="40"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -12760,13 +12632,13 @@
       <c r="AH42" s="40"/>
       <c r="AI42" s="40"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="369" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="370"/>
       <c r="G43" s="370"/>
@@ -12778,7 +12650,7 @@
       <c r="M43" s="370"/>
       <c r="N43" s="371"/>
       <c r="O43" s="340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P43" s="341"/>
       <c r="Q43" s="341"/>
@@ -12801,7 +12673,7 @@
       <c r="AH43" s="40"/>
       <c r="AI43" s="40"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -12819,7 +12691,7 @@
       <c r="M44" s="344"/>
       <c r="N44" s="345"/>
       <c r="O44" s="352" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P44" s="352"/>
       <c r="Q44" s="352"/>
@@ -12842,7 +12714,7 @@
       <c r="AH44" s="40"/>
       <c r="AI44" s="40"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -12858,7 +12730,7 @@
       <c r="M45" s="347"/>
       <c r="N45" s="348"/>
       <c r="O45" s="352" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P45" s="352"/>
       <c r="Q45" s="352"/>
@@ -12881,7 +12753,7 @@
       <c r="AH45" s="40"/>
       <c r="AI45" s="40"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -12897,7 +12769,7 @@
       <c r="M46" s="350"/>
       <c r="N46" s="351"/>
       <c r="O46" s="354" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P46" s="355"/>
       <c r="Q46" s="355"/>
@@ -12920,13 +12792,13 @@
       <c r="AH46" s="40"/>
       <c r="AI46" s="40"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
       <c r="E47" s="366" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="367"/>
       <c r="G47" s="367"/>
@@ -12959,7 +12831,7 @@
       <c r="AH47" s="40"/>
       <c r="AI47" s="40"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -12996,26 +12868,26 @@
       <c r="AH48" s="40"/>
       <c r="AI48" s="40"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
       <c r="E49" s="142"/>
       <c r="F49" s="143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G49" s="143"/>
       <c r="H49" s="143"/>
       <c r="I49" s="143"/>
       <c r="J49" s="144"/>
       <c r="K49" s="144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L49" s="143"/>
       <c r="M49" s="143"/>
       <c r="N49" s="143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O49" s="143"/>
       <c r="P49" s="143"/>
@@ -13039,7 +12911,7 @@
       <c r="AH49" s="40"/>
       <c r="AI49" s="40"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -13076,7 +12948,7 @@
       <c r="AH50" s="40"/>
       <c r="AI50" s="40"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -13113,12 +12985,12 @@
       <c r="AH51" s="40"/>
       <c r="AI51" s="40"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
       <c r="E52" s="96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA52" s="40"/>
       <c r="AB52" s="40"/>
@@ -13130,7 +13002,7 @@
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -13142,12 +13014,12 @@
       <c r="H53" s="287"/>
       <c r="I53" s="287"/>
       <c r="J53" s="282" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K53" s="282"/>
       <c r="L53" s="282"/>
       <c r="M53" s="283" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N53" s="284"/>
       <c r="O53" s="284"/>
@@ -13156,7 +13028,7 @@
       <c r="R53" s="284"/>
       <c r="S53" s="285"/>
       <c r="T53" s="283" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U53" s="284"/>
       <c r="V53" s="284"/>
@@ -13169,24 +13041,24 @@
       <c r="AC53" s="284"/>
       <c r="AD53" s="285"/>
     </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1">
+    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="E54" s="279" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" s="280"/>
       <c r="G54" s="280"/>
       <c r="H54" s="280"/>
       <c r="I54" s="280"/>
       <c r="J54" s="278" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K54" s="278"/>
       <c r="L54" s="278"/>
       <c r="M54" s="279" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N54" s="280"/>
       <c r="O54" s="280"/>
@@ -13208,7 +13080,7 @@
       <c r="AC54" s="280"/>
       <c r="AD54" s="281"/>
     </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1">
+    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -13239,12 +13111,12 @@
       <c r="AC55" s="137"/>
       <c r="AD55" s="137"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
       <c r="D56" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -13278,7 +13150,7 @@
       <c r="AH56" s="40"/>
       <c r="AI56" s="40"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -13315,13 +13187,13 @@
       <c r="AH57" s="40"/>
       <c r="AI57" s="40"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="40"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -13354,7 +13226,7 @@
       <c r="AH58" s="40"/>
       <c r="AI58" s="40"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="40"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
@@ -13391,7 +13263,7 @@
       <c r="AH59" s="40"/>
       <c r="AI59" s="40"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -13428,7 +13300,7 @@
       <c r="AH60" s="40"/>
       <c r="AI60" s="40"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C61" s="80" t="s">
         <v>53</v>
       </c>
@@ -13462,10 +13334,10 @@
       <c r="AE61" s="80"/>
       <c r="AF61" s="80"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
@@ -13496,7 +13368,7 @@
       <c r="AE62" s="80"/>
       <c r="AF62" s="80"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -13528,10 +13400,10 @@
       <c r="AE63" s="80"/>
       <c r="AF63" s="80"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="E64" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
@@ -13561,7 +13433,7 @@
       <c r="AE64" s="80"/>
       <c r="AF64" s="80"/>
     </row>
-    <row r="65" spans="3:34">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C65" s="80"/>
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
@@ -13593,15 +13465,15 @@
       <c r="AE65" s="80"/>
       <c r="AF65" s="80"/>
     </row>
-    <row r="66" spans="3:34">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
       <c r="E66" s="310" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F66" s="310"/>
       <c r="G66" s="294" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66" s="295"/>
       <c r="I66" s="295"/>
@@ -13609,7 +13481,7 @@
       <c r="K66" s="295"/>
       <c r="L66" s="296"/>
       <c r="M66" s="310" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N66" s="310"/>
       <c r="O66" s="294" t="s">
@@ -13635,7 +13507,7 @@
       <c r="AG66" s="295"/>
       <c r="AH66" s="296"/>
     </row>
-    <row r="67" spans="3:34">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -13667,7 +13539,7 @@
       <c r="AE67" s="80"/>
       <c r="AF67" s="80"/>
     </row>
-    <row r="68" spans="3:34">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -13699,10 +13571,10 @@
       <c r="AE68" s="80"/>
       <c r="AF68" s="80"/>
     </row>
-    <row r="69" spans="3:34">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E69" s="80"/>
       <c r="F69" s="80"/>
@@ -13733,7 +13605,7 @@
       <c r="AE69" s="80"/>
       <c r="AF69" s="80"/>
     </row>
-    <row r="70" spans="3:34">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -13765,26 +13637,26 @@
       <c r="AE70" s="80"/>
       <c r="AF70" s="80"/>
     </row>
-    <row r="71" spans="3:34">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
       <c r="E71" s="320" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="314" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G71" s="315"/>
       <c r="H71" s="315"/>
       <c r="I71" s="316"/>
       <c r="J71" s="314" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K71" s="315"/>
       <c r="L71" s="315"/>
       <c r="M71" s="316"/>
       <c r="N71" s="322" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O71" s="322"/>
       <c r="P71" s="322"/>
@@ -13795,7 +13667,7 @@
       <c r="U71" s="322"/>
       <c r="V71" s="322"/>
       <c r="W71" s="314" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X71" s="315"/>
       <c r="Y71" s="315"/>
@@ -13811,7 +13683,7 @@
       <c r="AG71" s="315"/>
       <c r="AH71" s="316"/>
     </row>
-    <row r="72" spans="3:34">
+    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="51"/>
       <c r="E72" s="321"/>
@@ -13824,14 +13696,14 @@
       <c r="L72" s="318"/>
       <c r="M72" s="319"/>
       <c r="N72" s="322" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O72" s="322"/>
       <c r="P72" s="322"/>
       <c r="Q72" s="322"/>
       <c r="R72" s="322"/>
       <c r="S72" s="282" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T72" s="282"/>
       <c r="U72" s="282"/>
@@ -13849,20 +13721,20 @@
       <c r="AG72" s="318"/>
       <c r="AH72" s="319"/>
     </row>
-    <row r="73" spans="3:34">
+    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
       <c r="D73" s="51"/>
       <c r="E73" s="153">
         <v>1</v>
       </c>
       <c r="F73" s="328" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G73" s="329"/>
       <c r="H73" s="329"/>
       <c r="I73" s="330"/>
       <c r="J73" s="328" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K73" s="329"/>
       <c r="L73" s="329"/>
@@ -13875,7 +13747,7 @@
       <c r="Q73" s="327"/>
       <c r="R73" s="327"/>
       <c r="S73" s="325" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T73" s="325"/>
       <c r="U73" s="325"/>
@@ -13893,20 +13765,20 @@
       <c r="AG73" s="361"/>
       <c r="AH73" s="362"/>
     </row>
-    <row r="74" spans="3:34">
+    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="80"/>
       <c r="D74" s="51"/>
       <c r="E74" s="153">
         <v>2</v>
       </c>
       <c r="F74" s="328" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G74" s="329"/>
       <c r="H74" s="329"/>
       <c r="I74" s="330"/>
       <c r="J74" s="328" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K74" s="329"/>
       <c r="L74" s="329"/>
@@ -13919,7 +13791,7 @@
       <c r="Q74" s="327"/>
       <c r="R74" s="327"/>
       <c r="S74" s="325" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T74" s="325"/>
       <c r="U74" s="325"/>
@@ -13937,20 +13809,20 @@
       <c r="AG74" s="361"/>
       <c r="AH74" s="362"/>
     </row>
-    <row r="75" spans="3:34">
+    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="80"/>
       <c r="D75" s="51"/>
       <c r="E75" s="153">
         <v>3</v>
       </c>
       <c r="F75" s="328" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G75" s="329"/>
       <c r="H75" s="329"/>
       <c r="I75" s="330"/>
       <c r="J75" s="328" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K75" s="329"/>
       <c r="L75" s="329"/>
@@ -13963,7 +13835,7 @@
       <c r="Q75" s="327"/>
       <c r="R75" s="327"/>
       <c r="S75" s="325" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T75" s="325"/>
       <c r="U75" s="325"/>
@@ -13981,7 +13853,7 @@
       <c r="AG75" s="361"/>
       <c r="AH75" s="362"/>
     </row>
-    <row r="76" spans="3:34">
+    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="80"/>
       <c r="D76" s="51"/>
       <c r="E76" s="153">
@@ -14017,7 +13889,7 @@
       <c r="AG76" s="361"/>
       <c r="AH76" s="362"/>
     </row>
-    <row r="77" spans="3:34">
+    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="80"/>
       <c r="D77" s="51"/>
       <c r="E77" s="153">
@@ -14209,45 +14081,45 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="155" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="156" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="156" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="156" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="156" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="156" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="156" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
